--- a/biology/Neurosciences/Néocortex/Néocortex.xlsx
+++ b/biology/Neurosciences/Néocortex/Néocortex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9ocortex</t>
+          <t>Néocortex</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le néocortex (ou néopallium, ou encore isocortex[1]) est une zone du cerveau des mammifères qui correspond à la couche externe des hémisphères cérébraux. Il fait partie du cortex cérébral (comprenant également l'archicortex et le paléocortex, membres du système limbique). Il est lui-même constitué de six couches distinctes, numérotées de I à VI (VI étant la plus profonde et I la plus externe). Il est impliqué dans les fonctions cognitives dites supérieures comme les perceptions sensorielles, les commandes motrices volontaires, le raisonnement spatial, la conscience ou encore le langage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le néocortex (ou néopallium, ou encore isocortex) est une zone du cerveau des mammifères qui correspond à la couche externe des hémisphères cérébraux. Il fait partie du cortex cérébral (comprenant également l'archicortex et le paléocortex, membres du système limbique). Il est lui-même constitué de six couches distinctes, numérotées de I à VI (VI étant la plus profonde et I la plus externe). Il est impliqué dans les fonctions cognitives dites supérieures comme les perceptions sensorielles, les commandes motrices volontaires, le raisonnement spatial, la conscience ou encore le langage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9ocortex</t>
+          <t>Néocortex</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études d'anatomie comparée ont démontré que le néocortex est une évolution récente du cerveau et qu'il s'est développé après et sur les autres couches du cortex. 
 Le néocortex est absent chez les poissons et les Amphibiens ; on le trouve à l'état d'ébauche chez certains reptiles ; et on le retrouve à différents stades chez d'autres animaux. Il est peu développé chez le Rat et le Chat, mais très développé chez les Primates où il présente même une complexité inédite dans le cas de l'être humain. À titre de comparaison, le néocortex représente 20 % du poids du cerveau d’une musaraigne et 80 % de celui de l’humain. [réf. nécessaire]
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9ocortex</t>
+          <t>Néocortex</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le néocortex constitue la matière grise, les corps cellulaires des neurones et des fibres non myélinisées, à opposer à la matière blanche, plus profonde, qui est constituée principalement d'axones myélinisés. Il contient deux types principaux de neurones :
 Des neurones pyramidaux qui sont excitateurs (~80 % des neurones néocorticaux)
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9ocortex</t>
+          <t>Néocortex</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le néocortex est impliqué dans la perception (par les sens) et dans la réaction (par l'appareil locomoteur). 
 Il est également le siège supposé de l'abstraction (on y distingue par exemple des zones impliquées dans la représentation spatiale et dans le langage). Il est également impliqué dans le processus de mémoire.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9ocortex</t>
+          <t>Néocortex</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Différentes représentations du cerveau humain :
 			avec le squelette
